--- a/Probandenauswahl.xlsx
+++ b/Probandenauswahl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Translators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEC1CEF-809A-4EAD-A5FB-A91DADEC9A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D633FCD9-2EE5-4B26-8555-3196EE870447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="2700" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,16 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="126">
-  <si>
-    <t>Proband</t>
-  </si>
-  <si>
-    <t>Gruppe</t>
-  </si>
-  <si>
-    <t>Probandendaten</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="124">
   <si>
     <t>CA0</t>
   </si>
@@ -193,9 +184,6 @@
     <t>ADHS?</t>
   </si>
   <si>
-    <t>Visual Inspection BVA</t>
-  </si>
-  <si>
     <t>Antidepressiva</t>
   </si>
   <si>
@@ -358,12 +346,6 @@
     <t>Migräne, Textblock 1 Impedanzen nicht gespeichert</t>
   </si>
   <si>
-    <t>gesund</t>
-  </si>
-  <si>
-    <t>nein</t>
-  </si>
-  <si>
     <t>e2_t</t>
   </si>
   <si>
@@ -376,9 +358,6 @@
     <t>re-done: e1_t</t>
   </si>
   <si>
-    <t>Task Auffälligkeiten</t>
-  </si>
-  <si>
     <t>copy trans??</t>
   </si>
   <si>
@@ -397,22 +376,37 @@
     <t>e1_t, e2_c re-done:  all</t>
   </si>
   <si>
-    <t>Ausschlussgrund</t>
-  </si>
-  <si>
     <t>ADHS</t>
   </si>
   <si>
-    <t>Copy</t>
-  </si>
-  <si>
-    <t>Segmente</t>
-  </si>
-  <si>
-    <t>Ritalin</t>
-  </si>
-  <si>
-    <t>Missing</t>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>participant data</t>
+  </si>
+  <si>
+    <t>exclusion criterion</t>
+  </si>
+  <si>
+    <t>antidepressants</t>
+  </si>
+  <si>
+    <t>copy task</t>
+  </si>
+  <si>
+    <t>low number of segments</t>
+  </si>
+  <si>
+    <t>missing data</t>
+  </si>
+  <si>
+    <t>intake of Ritalin</t>
   </si>
 </sst>
 </file>
@@ -561,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,18 +741,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -920,13 +902,11 @@
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1248,775 +1228,757 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="30.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="27.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="F22" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B74" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
